--- a/factory_extraction.xlsx
+++ b/factory_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,31 +454,6 @@
           <t>工廠編號</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>工廠位置</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>工廠名稱</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>工廠地址</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>工廠編號</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>營業狀況</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -491,442 +466,1237 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>府經工行字第1149051376號</t>
+          <t>府經工行字第1149051277號</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>68005501</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>桃園市中壢區過嶺里</t>
+          <t>68006796</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>鑫鎂金屬實業有限公司</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>桃園市中壢區過嶺里民族路六段642巷96號(4樓)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>68005501</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>請留一個工廠編號，完成後存檔關閉</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>split_10.pdf</t>
+          <t>split_2.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>府經工行字第1149051266號</t>
+          <t>府經工行字第1149052180號</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68006713</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>桃園市中壢區內定里</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>瓦城泰統股份有限公司</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>桃園市中壢區內定里新北園路5號</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>68006713</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68002187</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>split_2.pdf</t>
+          <t>split_3.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>府經工行字第1149051375號</t>
+          <t>府經工行字第1149052153號</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68006711</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>桃園市新屋區頭洲里</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>鉞鑫工程有限公司二廠</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>桃園市新屋區頭洲里民族路六段453巷21號</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>68006711</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68000355</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>split_3.pdf</t>
+          <t>split_4.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>府經工行字第1149051377號</t>
+          <t>府經工行字第1149052181號</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68006709</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>桃園市中壢區過嶺里</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>宗興玻璃實業有限公司</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>桃園市中壢區過嶺里民族路六段642巷96號(4樓)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>68006709</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68001069</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>split_4.pdf</t>
+          <t>split_5.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>府經工行字第1149050964號</t>
+          <t>府經工行字第1149052083號</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68006706</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>桃園市中壢區內定里</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>獻和騰有限公司中壢廠</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>桃園市中壢區內定里內定二十街76巷62號</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>68006706</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68006838</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>split_5.pdf</t>
+          <t>split_6.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>府經工行字第1149051451號</t>
+          <t>府經工行字第1149052177號</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99624450</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區大同里</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>幸東工業股份有限公司</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區大同里中山北路一段21巷2之2號三樓</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>99624450</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>03001865</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>split_6.pdf</t>
+          <t>split_7.pdf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>府經工行字第1149051446號</t>
+          <t>府經工行字第1149052178號</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99629071</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區大平里</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>江申工業股份有限公司</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區大平里新江路１００號</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>99629071</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>99717719</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>split_7.pdf</t>
+          <t>split_8.pdf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>府經工行字第1149051441號</t>
+          <t>府經工行字第1149052183號</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68005601</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>桃園市中壢區永福里</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>超能高新材料股份有限公司中壢廠</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>桃園市中壢區永福里西園路99之1號(1樓)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>68005601</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>99623878</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>split_8.pdf</t>
+          <t>split_9.pdf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>府經工行字第1149051412號</t>
+          <t>府經工行字第1149052147號</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>68006720</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區中山里</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>正陽工業有限公司</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區中山里環東路298巷65號(2樓)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>68006720</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68006305</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>split_9.pdf</t>
+          <t>split_10.pdf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>府經工行字第1149051425號</t>
+          <t>府經工行字第1149052146號</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>68006715</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區中山里</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>旭埕科技有限公司</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>桃園市楊梅區中山里中山北路一段199巷126號、128號</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>68006715</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>生產中</t>
+          <t>68003642</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>split_11.pdf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052089號</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>68006155</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>split_12.pdf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>府經工行字第1149051962號</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>99707001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>split_13.pdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052198號</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>split_14.pdf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>府經工行字第1149051827號</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>99625041</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>split_15.pdf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052182號</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>68006610</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>split_16.pdf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052187號</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>68003144</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>split_17.pdf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052105號</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>68006843</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>split_18.pdf</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052191號</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>68006845</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>split_19.pdf</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>府經工行字第1149051914號</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>68006846</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>split_20.pdf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052265號</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>68000808</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>split_21.pdf</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052259號</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>99621891</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>split_22.pdf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052251號</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>68003088</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>split_23.pdf</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052202號</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>68006650</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>split_24.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052273號</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>03000751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>split_25.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052275號</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>03000753</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>split_26.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>府經工行字第1129050442號</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>split_27.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052304號</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>99629017</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>split_28.pdf</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052285號</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>03001467</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>split_29.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052291號</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>99623158</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>split_30.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052112號</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>68006860</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>split_31.pdf</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052372號</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>68006846</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>split_32.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>府經工行字第1129052863號</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>split_33.pdf</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052339號</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>68004805</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>split_34.pdf</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052170號</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>68006862</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>split_35.pdf</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052169號</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>68006864</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>split_36.pdf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052382號</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>68006111</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>split_37.pdf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052340號</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>68006066</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>split_38.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>府經工行字第1149051504號</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>68006875</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>split_39.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052360號</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>68006879</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>split_40.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052425號</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>99624868</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>split_41.pdf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052424號</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>68000597</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>split_42.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052422號</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>99624863</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>split_43.pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>府經工行字第1149051958號</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>99621238</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>split_44.pdf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052432號</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>99627039</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>split_45.pdf</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052431號</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>03000331</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>split_46.pdf</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052476號</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>68004057</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>split_47.pdf</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052464號</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>68000690</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>split_48.pdf</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052463號</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>99621512</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>split_49.pdf</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052466號</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>99621580</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>split_50.pdf</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052467號</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>99687113</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>split_51.pdf</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052493號</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>68005509</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>split_52.pdf</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052500號</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>99687651</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>split_53.pdf</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052441號</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>68006887</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>split_54.pdf</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052276號</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>68006893</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>split_55.pdf</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052457號</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>68006888</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>split_56.pdf</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052442號</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>68006890</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>split_57.pdf</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052443號</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>68006891, 99628809</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>split_58.pdf</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052456號</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>68003721</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>split_59.pdf</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052530號</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>99627662</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>split_60.pdf</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052513號</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>68003651</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>split_61.pdf</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052292號</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>68006897</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>split_62.pdf</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>府經工行字第1149052023號</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>68006894</t>
         </is>
       </c>
     </row>
